--- a/analysis/raw_data/AvsN_use-wear.xlsx
+++ b/analysis/raw_data/AvsN_use-wear.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -183,52 +183,52 @@
     <t xml:space="preserve">FLT4-12</t>
   </si>
   <si>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50x095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin pad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:48:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/20/2020 2:39:46 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:49:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/20/2020 2:55:08 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:50:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/20/2020 3:12:51 PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">before</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50x095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin pad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:48:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/20/2020 2:39:46 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:49:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/20/2020 2:55:08 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:50:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/20/2020 3:12:51 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000</t>
   </si>
   <si>
     <t xml:space="preserve">14:50:43</t>
@@ -765,8 +765,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -803,7 +805,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,12 +1092,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -11269,12 +11271,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
